--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3ADBAF-CA4F-4E7F-909A-AA46BDD7F0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51201B27-C8C7-4EB2-B075-37E0E9EA5E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="1710" windowWidth="9345" windowHeight="7875" xr2:uid="{B1DA548A-E709-4F96-90C9-22A242DC1373}"/>
+    <workbookView xWindow="690" yWindow="1965" windowWidth="9345" windowHeight="7875" xr2:uid="{B1DA548A-E709-4F96-90C9-22A242DC1373}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,21 +51,6 @@
     <t>harga_jual</t>
   </si>
   <si>
-    <t>SBK-003</t>
-  </si>
-  <si>
-    <t>SNK-003</t>
-  </si>
-  <si>
-    <t>MND-003</t>
-  </si>
-  <si>
-    <t>BAY-003</t>
-  </si>
-  <si>
-    <t>MNM-003</t>
-  </si>
-  <si>
     <t>Telur Omega(10 butir)</t>
   </si>
   <si>
@@ -79,6 +64,21 @@
   </si>
   <si>
     <t>Cleo 600ml</t>
+  </si>
+  <si>
+    <t>SBK003</t>
+  </si>
+  <si>
+    <t>SNK003</t>
+  </si>
+  <si>
+    <t>MND003</t>
+  </si>
+  <si>
+    <t>BAY003</t>
+  </si>
+  <si>
+    <t>MNM003</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,10 +467,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2">
         <v>22000</v>
@@ -484,10 +484,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>11500</v>
@@ -501,10 +501,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4">
         <v>17500</v>
@@ -518,10 +518,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5">
         <v>89000</v>
@@ -535,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6">
         <v>3750</v>

--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51201B27-C8C7-4EB2-B075-37E0E9EA5E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8C2430-2BEE-47BD-BD8C-085CC0235C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1965" windowWidth="9345" windowHeight="7875" xr2:uid="{B1DA548A-E709-4F96-90C9-22A242DC1373}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="7680" windowHeight="7875" xr2:uid="{B1DA548A-E709-4F96-90C9-22A242DC1373}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,19 +66,19 @@
     <t>Cleo 600ml</t>
   </si>
   <si>
-    <t>SBK003</t>
-  </si>
-  <si>
-    <t>SNK003</t>
-  </si>
-  <si>
-    <t>MND003</t>
-  </si>
-  <si>
-    <t>BAY003</t>
-  </si>
-  <si>
-    <t>MNM003</t>
+    <t>SBK-003</t>
+  </si>
+  <si>
+    <t>SNK-003</t>
+  </si>
+  <si>
+    <t>MND-003</t>
+  </si>
+  <si>
+    <t>BAY-003</t>
+  </si>
+  <si>
+    <t>MNM-003</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
